--- a/virial_propane.xlsx
+++ b/virial_propane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13222\Documents\GitHub\Virial-curvefit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF2B59-59E9-4E81-B5E3-162F194820B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6121D69B-BC08-4AFA-B372-324A225154D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="2640" windowWidth="14265" windowHeight="11385" xr2:uid="{4958C5A2-446E-407D-9E01-26768E74B706}"/>
+    <workbookView xWindow="5460" yWindow="2475" windowWidth="14265" windowHeight="11385" xr2:uid="{4958C5A2-446E-407D-9E01-26768E74B706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
